--- a/pyflaskpractice/simple/penalcode/crimeoftheft/calculationformula.xlsx
+++ b/pyflaskpractice/simple/penalcode/crimeoftheft/calculationformula.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>普通盗窃</t>
   </si>
@@ -427,6 +427,10 @@
   </si>
   <si>
     <t>(m-100)/10*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000-1200000克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1351,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,7 +1366,9 @@
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -1590,6 +1596,11 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>97</v>
       </c>
     </row>
